--- a/Framework/TestData/logins.xlsx
+++ b/Framework/TestData/logins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maheshm\Desktop\Azure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6675204-1E36-43F4-B760-7768A35C47F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9E7930-9D88-4C20-B894-276556143D01}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Prod" sheetId="3" r:id="rId3"/>
     <sheet name="OrangeHRM" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="Azure" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Admin</t>
   </si>
@@ -74,16 +75,37 @@
   </si>
   <si>
     <t>XYZ</t>
+  </si>
+  <si>
+    <t>Pass@123</t>
+  </si>
+  <si>
+    <t>ubs1@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,15 +149,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -550,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B473F45-0FDC-4415-B9A6-393796B57D4D}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,4 +649,44 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7BC302-2B19-4EB1-AF47-66F3B10FA36B}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{50D39DCD-84BC-459E-AF81-29B269744BB5}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{70EDDD54-7038-4D70-90DD-3EDA034C9050}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
+</worksheet>
 </file>